--- a/CustomLocalization-RU/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -1114,15 +1114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
